--- a/周记.xlsx
+++ b/周记.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="学习规划" sheetId="4" r:id="rId1"/>
+    <sheet name="规划" sheetId="4" r:id="rId1"/>
     <sheet name="周记" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="日记" sheetId="3" r:id="rId3"/>
+    <sheet name="非专业书籍" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>具体计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,23 +59,68 @@
   </si>
   <si>
     <t>早睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早睡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&lt;=10：30-A，10:30~11:00-B,
 11:00~12:00-C, &gt;12:00-D
-计分：A:10,B:3,C:0,D:-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早睡</t>
+计分：A:10,B:5,C:0,D:-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《未来世界的幸存者》
+阮一峰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1.《Java8实战》 完成前3章，coding+笔记
 2.剑指Offer，目前15道，至少+10道
 3.设计模式，head first复习一遍
-4.《重构》读完第5,6章</t>
+4.《重构》读完第5,6章
+5.《effective java》 中英文 第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名+博文+进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来科技的发展，人工智能、机器人的出现，会让大量可替代性强的岗位失业。
+要有plan B，为生活的变故做计划和准备。
+学好技术，成为行业专家，才不会活得那么艰辛。
+努力创业，自己成为老板，而不是一直被雇佣，要懂得利用资本或者让别人帮你创造价值和利润。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +128,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,13 +156,40 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -151,6 +223,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,36 +543,40 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="46.125" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="5" max="5" width="53.125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="3" max="3" width="46.125" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="54" x14ac:dyDescent="0.35">
-      <c r="E2" s="4" t="s">
+    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -499,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -513,36 +604,38 @@
     <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -557,12 +650,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.75" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>43394</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -570,13 +687,44 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="76.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/周记.xlsx
+++ b/周记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规划" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>具体计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018/10/20~27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类别或者计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,10 +59,6 @@
   </si>
   <si>
     <t>早睡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -86,14 +78,6 @@
   <si>
     <t>《未来世界的幸存者》
 阮一峰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.《Java8实战》 完成前3章，coding+笔记
-2.剑指Offer，目前15道，至少+10道
-3.设计模式，head first复习一遍
-4.《重构》读完第5,6章
-5.《effective java》 中英文 第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -121,6 +105,84 @@
 要有plan B，为生活的变故做计划和准备。
 学好技术，成为行业专家，才不会活得那么艰辛。
 努力创业，自己成为老板，而不是一直被雇佣，要懂得利用资本或者让别人帮你创造价值和利润。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/20~28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">花时间搞那些面试的算法题真的没什么用，顶多训练编程的正确率，代码实现能力，记忆力，没必要浪费太多时间，每天刷题不超过30分钟。不如研究框架，开源代码实用。
+如果比较忙的时候，还能抽时间看点书，如果闲下来有大段时间可用，反而不去看书了，而是想先看个电影娱乐下，然后就没有情绪看书了。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">下次做编程题前开秒表计时，不超过30分钟。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>周末去女朋友家了2天，进度为0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB，23B，24C,25B，26B,27B,28B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/10/29~11/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周要出去旅行4天，所以任务就少点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.60%第二章结束
+2.100%
+3.20%
+4.100%
+5.20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《Java8实战》 完成前3章，coding+笔记
+2.剑指Offer，目前15道，至少+10道
+3.设计模式，head first复习一遍
+4.《重构》读完第6,7章
+5.《effective java》 中英文 第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.60%第二章结束
+2.0%
+3.20%
+4.%
+5.20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.《Java8实战》 完成前3.5章，coding+笔记
+2.剑指Offer，目前26道，至少至36
+3.设计模式，head first复习一遍，coding+笔记
+4.《重构》读完第8章
+5.《effective java》 中英文 第一章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +239,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -204,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,6 +315,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +629,7 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -558,26 +638,26 @@
     <col min="6" max="6" width="53.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="48.75" customHeight="1">
+      <c r="F2" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -590,21 +670,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.25" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="48.25" style="8" customWidth="1"/>
+    <col min="3" max="3" width="10.75" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="14.25">
       <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
@@ -612,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
@@ -621,24 +701,42 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="94.5">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="94.5" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
   </sheetData>
@@ -656,25 +754,25 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="27.75" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="18.75">
       <c r="A1" s="9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="2">
         <v>43394</v>
       </c>
@@ -689,37 +787,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.875" style="8" customWidth="1"/>
     <col min="3" max="3" width="76.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="20.25">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="67.5">
       <c r="A2" s="2">
         <v>43394</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
